--- a/basic_setup.xlsx
+++ b/basic_setup.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Basic installation and set up</t>
   </si>
@@ -59,25 +59,64 @@
     <t>install docker desktop</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>create new env test</t>
+  </si>
+  <si>
+    <t>onda create --name test python=3.12.7</t>
+  </si>
+  <si>
+    <t>activate env genai</t>
+  </si>
+  <si>
     <t>conda activate genai</t>
   </si>
   <si>
     <t>activate genai enviornment</t>
   </si>
   <si>
+    <t>check python version</t>
+  </si>
+  <si>
     <t>python --version</t>
   </si>
   <si>
     <t>python version for env</t>
   </si>
   <si>
+    <t>install package from file</t>
+  </si>
+  <si>
+    <t>list env</t>
+  </si>
+  <si>
+    <t>list package in python</t>
+  </si>
+  <si>
     <t>start with python</t>
   </si>
   <si>
+    <t>open vs code</t>
+  </si>
+  <si>
+    <t>write a python script</t>
+  </si>
+  <si>
     <t>start with python project</t>
   </si>
   <si>
+    <t>install python extention</t>
+  </si>
+  <si>
     <t>write first python script with few methods in that</t>
+  </si>
+  <si>
+    <t>install other required extension</t>
   </si>
   <si>
     <t>write another python script for execution</t>
@@ -150,6 +189,9 @@
     <t>start docker</t>
   </si>
   <si>
+    <t>docker-compose</t>
+  </si>
+  <si>
     <t>docker in cloud</t>
   </si>
   <si>
@@ -174,6 +216,9 @@
     <t>write docker file</t>
   </si>
   <si>
+    <t>docker login</t>
+  </si>
+  <si>
     <t>container registery</t>
   </si>
   <si>
@@ -288,7 +333,7 @@
     <t>azure container registery</t>
   </si>
   <si>
-    <t>Agenda for today</t>
+    <t>Push docker image to docker hub</t>
   </si>
   <si>
     <t>run docker in aws</t>
@@ -297,7 +342,49 @@
     <t>databrick</t>
   </si>
   <si>
+    <t>build doker image</t>
+  </si>
+  <si>
+    <t>docker build -t my-app .</t>
+  </si>
+  <si>
+    <t>tag image with docker username</t>
+  </si>
+  <si>
+    <t>docker tag myapp harishanker/myapp:v1</t>
+  </si>
+  <si>
     <t>gc</t>
+  </si>
+  <si>
+    <t>docker push</t>
+  </si>
+  <si>
+    <t>docker push harishanker/myapp:v1</t>
+  </si>
+  <si>
+    <t>docker pull</t>
+  </si>
+  <si>
+    <t>docker pull harishanker/myapp:v1</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>docker run my-app</t>
+  </si>
+  <si>
+    <t>run interative way</t>
+  </si>
+  <si>
+    <t>docker run -it my-app</t>
+  </si>
+  <si>
+    <t>run with named container</t>
+  </si>
+  <si>
+    <t>docker run --name my-container my-app</t>
   </si>
 </sst>
 </file>
@@ -362,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -387,7 +474,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -395,6 +482,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -817,56 +907,91 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.88"/>
-    <col customWidth="1" min="2" max="2" width="29.0"/>
+    <col customWidth="1" min="2" max="2" width="29.75"/>
+    <col customWidth="1" min="3" max="3" width="29.0"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
+      <c r="A4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -885,86 +1010,112 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.88"/>
-    <col customWidth="1" min="4" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="5" width="29.0"/>
+    <col customWidth="1" min="1" max="2" width="35.88"/>
+    <col customWidth="1" min="5" max="5" width="11.25"/>
+    <col customWidth="1" min="6" max="6" width="29.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A15"/>
+    <hyperlink r:id="rId1" ref="B15"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -986,42 +1137,42 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1040,553 +1191,619 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.0"/>
-    <col customWidth="1" min="2" max="2" width="15.25"/>
-    <col customWidth="1" min="3" max="5" width="27.38"/>
-    <col customWidth="1" min="6" max="6" width="22.63"/>
-    <col customWidth="1" min="7" max="7" width="17.13"/>
-    <col customWidth="1" min="8" max="8" width="21.63"/>
-    <col customWidth="1" min="9" max="9" width="19.13"/>
-    <col customWidth="1" min="11" max="11" width="18.13"/>
-    <col customWidth="1" min="13" max="13" width="16.13"/>
-    <col customWidth="1" min="14" max="14" width="21.13"/>
+    <col customWidth="1" min="2" max="2" width="31.75"/>
+    <col customWidth="1" min="3" max="6" width="27.38"/>
+    <col customWidth="1" min="7" max="7" width="22.63"/>
+    <col customWidth="1" min="8" max="8" width="17.13"/>
+    <col customWidth="1" min="9" max="9" width="21.63"/>
+    <col customWidth="1" min="10" max="10" width="19.13"/>
+    <col customWidth="1" min="12" max="12" width="18.13"/>
+    <col customWidth="1" min="14" max="14" width="16.13"/>
+    <col customWidth="1" min="15" max="15" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="11"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="M4" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>77</v>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>81</v>
+      <c r="G12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>97</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
-      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="M14" s="2"/>
+      <c r="F14" s="3"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
     <row r="17">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
     <row r="18">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
     <row r="20">
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3"/>
     </row>
     <row r="21">
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3"/>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
     <row r="22">
-      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
     </row>
     <row r="23">
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
     <row r="25">
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
     </row>
     <row r="26">
-      <c r="E26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
     </row>
     <row r="27">
-      <c r="E27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
     </row>
     <row r="28">
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="A28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
     </row>
     <row r="29">
-      <c r="G29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
     </row>
     <row r="30">
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
     </row>
     <row r="31">
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="M31" s="3"/>
+      <c r="A31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
     </row>
     <row r="32">
-      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33">
-      <c r="M33" s="3"/>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34">
-      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35">
-      <c r="M35" s="3"/>
+      <c r="A35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
     <row r="36">
-      <c r="M36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
     <row r="37">
-      <c r="M37" s="3"/>
+      <c r="A37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
     </row>
     <row r="38">
-      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="J2"/>
-    <hyperlink r:id="rId3" ref="H4"/>
-    <hyperlink r:id="rId4" ref="J4"/>
-    <hyperlink r:id="rId5" ref="J6"/>
-    <hyperlink r:id="rId6" ref="J8"/>
-    <hyperlink r:id="rId7" ref="J10"/>
-    <hyperlink r:id="rId8" ref="J12"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="K2"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="K4"/>
+    <hyperlink r:id="rId5" ref="K6"/>
+    <hyperlink r:id="rId6" ref="K8"/>
+    <hyperlink r:id="rId7" ref="K10"/>
+    <hyperlink r:id="rId8" ref="K12"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>
